--- a/Docs/Speed test.xlsx
+++ b/Docs/Speed test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853F986F-1DB7-409E-89DB-DC21BA74CB44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FEA327-FB09-41C1-8F1A-F4DDE2C4EA04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="580" windowWidth="14400" windowHeight="9230" xr2:uid="{2329AD26-BE3D-42EA-833D-B094980B01B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2329AD26-BE3D-42EA-833D-B094980B01B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>@50</t>
   </si>
   <si>
     <t>@350</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +85,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D133993E-AB07-473F-88BC-056A81783E07}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>30031</v>
       </c>
@@ -411,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6357</v>
       </c>
@@ -419,6 +438,10 @@
         <f>A2/$A$1*1000</f>
         <v>211.68126269521494</v>
       </c>
+      <c r="C2" s="2">
+        <f>B2/B$6-1</f>
+        <v>0.10355003905910931</v>
+      </c>
       <c r="D2">
         <v>22114</v>
       </c>
@@ -426,8 +449,12 @@
         <f>D2/$A$1*1000</f>
         <v>736.37241517098994</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2">
+        <f>E2/$E$6-1</f>
+        <v>5.0904463230614372E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7163</v>
       </c>
@@ -435,15 +462,23 @@
         <f t="shared" ref="B3:B5" si="0">A3/$A$1*1000</f>
         <v>238.52019579767571</v>
       </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C5" si="1">B3/B$6-1</f>
+        <v>0.24346844891936437</v>
+      </c>
       <c r="D3">
         <v>21860</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">D3/$A$1*1000</f>
+        <f t="shared" ref="E3:E5" si="2">D3/$A$1*1000</f>
         <v>727.91448836202585</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2">
+        <f>E3/$E$6-1</f>
+        <v>-6.4539587310245006E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6400</v>
       </c>
@@ -451,15 +486,23 @@
         <f t="shared" si="0"/>
         <v>213.11311644633878</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11101466886554978</v>
+      </c>
       <c r="D4">
         <v>22553</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750.99064300223108</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <f>E4/$E$6-1</f>
+        <v>2.5043177892918989E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3122</v>
       </c>
@@ -467,12 +510,72 @@
         <f t="shared" si="0"/>
         <v>103.95924211647964</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.45803315684402401</v>
+      </c>
       <c r="D5">
         <v>21481</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>715.29419599746927</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/$E$6-1</f>
+        <v>-2.3679665484955925E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>SUM(B2:B5)/4</f>
+        <v>191.81845426392729</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E2:E5)/4</f>
+        <v>732.64293563317904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>-200</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>160</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <f>F9-G9</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>194</v>
+      </c>
+      <c r="G11">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
